--- a/methods/city.xlsx
+++ b/methods/city.xlsx
@@ -13744,8 +13744,8 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101003D5EB1F26A9D2448B0B462A4B95BBA8D" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="ea32c86f466abe0e73487f21b288dc11">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="f76b0799-e2f7-4936-ad37-6b693d23f604" xmlns:ns3="420f222d-d251-4793-a8fe-c42970fccb6f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d43b4e9f170aba3ea30c55bd0541d73b" ns2:_="" ns3:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101003D5EB1F26A9D2448B0B462A4B95BBA8D" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="6477665bf9a2a8472856ca531ac1b9c4">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="f76b0799-e2f7-4936-ad37-6b693d23f604" xmlns:ns3="420f222d-d251-4793-a8fe-c42970fccb6f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2e7bcfed897bc0eb12544d3fb556e05c" ns2:_="" ns3:_="">
     <xsd:import namespace="f76b0799-e2f7-4936-ad37-6b693d23f604"/>
     <xsd:import namespace="420f222d-d251-4793-a8fe-c42970fccb6f"/>
     <xsd:element name="properties">
@@ -13764,6 +13764,7 @@
                 <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -13821,6 +13822,11 @@
     <xsd:element name="MediaServiceEventHashCode" ma:index="18" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="19" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
       </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
@@ -13959,22 +13965,7 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B85DD8CC-DBED-40E0-BA0E-21779BCBC9EE}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="f76b0799-e2f7-4936-ad37-6b693d23f604"/>
-    <ds:schemaRef ds:uri="420f222d-d251-4793-a8fe-c42970fccb6f"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2516085F-E7C5-4F37-8BAB-F7AABA4B8CAC}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
